--- a/프로젝트 문서/설계 문서/테이블 정의서/테이블 정의서 (240910 수정).xlsx
+++ b/프로젝트 문서/설계 문서/테이블 정의서/테이블 정의서 (240910 수정).xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ledle\Desktop\메인프로젝트\설계 문서\테이블 정의서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ledle\Documents\GitHub\202408_MainProject_Documents\프로젝트 문서\설계 문서\테이블 정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -21,196 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="143">
   <x:si>
-    <x:t>사용자 고유 번호 (사용자 정보 FK)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GOOD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원활동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영문 컬럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GENDER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자고유번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카페이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DEFAULT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록일자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>REVIEW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부가정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리뷰수정일자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생년월일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INDEX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정일자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카페고유번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한글 컬럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카페유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 정의서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입일자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영업시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NULL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POINT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선호유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CAFE_ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LENGTH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UNIQUE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친절점수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DOUBLE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PARKING</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WIFI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소재지번</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POINT5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POINT4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가성비점수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카페이미지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POINT3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>와이파이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SITE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MOOD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHAR(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MEMBER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>휠체어사용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ADD_OLD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CAFE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POINT1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서브시스템명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y: 좋아요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EMAIL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POINT2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동물출입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>분위기점수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NOW()</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주차점수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일련
-번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">PAGE </x:t>
-  </x:si>
-  <x:si>
-    <x:t>거리</x:t>
-  </x:si>
-  <x:si>
     <x:t>M01: 가성비좋은
 M02: 고급스러운
 M03: 예쁜
@@ -218,13 +28,52 @@
 M05: 이색적인</x:t>
   </x:si>
   <x:si>
-    <x:t>해당 카페 리뷰 감성 분석 점수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>METER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>거리단위</x:t>
+    <x:t>REVIEW_POINT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 고유 번호 (숫자형)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AUTO_INCREMENT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카페 고유 번호 (숫자형)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y : 가능 , N : 불가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마지막 수정 날짜 및 시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 고유 번호 (사용자 정보 FK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MEMBER_NAME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAFE_TEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAFE_TYPE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시  스  템   명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ADD_ROAD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MEMBER_ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OPEN_CLOSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEFINITION</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작   성   일</x:t>
   </x:si>
   <x:si>
     <x:t>DISTANCE</x:t>
@@ -233,140 +82,116 @@
     <x:t>SUB_INFO</x:t>
   </x:si>
   <x:si>
-    <x:t>DEFINITION</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OPEN_CLOSE</x:t>
-  </x:si>
-  <x:si>
     <x:t>MEMBER_LIKE</x:t>
   </x:si>
   <x:si>
-    <x:t>CAFE_TYPE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시  스  템   명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ADD_ROAD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MEMBER_ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CAFE_TEL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작   성   일</x:t>
-  </x:si>
-  <x:si>
     <x:t>회원 정보 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATETIME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REG_DATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 활동 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LONGITUDE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카페 정보 관리</x:t>
   </x:si>
   <x:si>
     <x:t>DATA
 TYPE</x:t>
   </x:si>
   <x:si>
+    <x:t>DATABASE ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BIRTHDATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LATITUDE</x:t>
+  </x:si>
+  <x:si>
     <x:t>CAFE_NAME</x:t>
   </x:si>
   <x:si>
-    <x:t>DATABASE ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>REG_DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 활동 관리</x:t>
+    <x:t>USER_TEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLAYROOM</x:t>
   </x:si>
   <x:si>
     <x:t>MOD_DATE</x:t>
   </x:si>
   <x:si>
-    <x:t>카페 정보 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BIRTHDATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USER_TEL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LATITUDE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PLAYROOM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LONGITUDE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATETIME</x:t>
-  </x:si>
-  <x:si>
     <x:t>IMAGE_URL</x:t>
   </x:si>
   <x:si>
-    <x:t>USER_NAME</x:t>
-  </x:si>
-  <x:si>
     <x:t>SMOKINGROOM</x:t>
   </x:si>
   <x:si>
+    <x:t>홍대입구에서 미터단위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MEMBER_ACT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.09.02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입 날짜 및 시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANIENTRY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홍대입구역에서 거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TOTAL_POINT</x:t>
+  </x:si>
+  <x:si>
     <x:t>WHEELCHAIR</x:t>
   </x:si>
   <x:si>
-    <x:t>2024.09.02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MEMBER_ACT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TOTAL_POINT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입 날짜 및 시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ANIENTRY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홍대입구역에서 거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홍대입구에서 미터단위</x:t>
+    <x:t xml:space="preserve">	사용자 생년월일 (YYMMDD)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 성별 ('M', 'F')</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선호 정보 수정 날짜 및 시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선호 정보 등록 날짜 및 시간</x:t>
   </x:si>
   <x:si>
     <x:t>F : 프렌차이즈, P : 개인</x:t>
   </x:si>
   <x:si>
-    <x:t>선호 정보 등록 날짜 및 시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">	사용자 생년월일 (YYMMDD)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선호 정보 수정 날짜 및 시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 성별 ('M', 'F')</x:t>
+    <x:t>해당 카페 리뷰 감성 분석 점수</x:t>
   </x:si>
   <x:si>
     <x:t>홍대 카페 맞춤 추천 웹서비스</x:t>
   </x:si>
   <x:si>
-    <x:t>AUTO_INCREMENT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카페 고유 번호 (숫자형)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y : 가능 , N : 불가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 고유 번호 (숫자형)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마지막 수정 날짜 및 시간</x:t>
+    <x:t>주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총점수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
   </x:si>
   <x:si>
     <x:t>흡연실</x:t>
@@ -378,82 +203,257 @@
     <x:t>리뷰</x:t>
   </x:si>
   <x:si>
-    <x:t>주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총점수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
+    <x:t>거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카페</x:t>
+  </x:si>
+  <x:si>
+    <x:t>놀이방</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맛점수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좋아요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>별점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작성자</x:t>
   </x:si>
   <x:si>
     <x:t>위도</x:t>
   </x:si>
   <x:si>
-    <x:t>N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>별점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맛점수</x:t>
-  </x:si>
-  <x:si>
     <x:t>분위기</x:t>
   </x:si>
   <x:si>
-    <x:t>PW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카페</x:t>
-  </x:si>
-  <x:si>
-    <x:t>놀이방</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좋아요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y</x:t>
+    <x:t>거리단위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일련
+번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">PAGE </x:t>
+  </x:si>
+  <x:si>
+    <x:t>METER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리뷰점수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FLOAT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친절점수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GOOD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEFAULT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카페이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원활동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영문 컬럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GENDER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자고유번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부가정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한글 컬럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카페고유번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리뷰수정일자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록일자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카페유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정일자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REVIEW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생년월일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INDEX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POINT5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAFE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POINT3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영업시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소재지번</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LENGTH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ADD_OLD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POINT1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y: 좋아요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카페이미지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOOD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 정의서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAFE_ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>휠체어사용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHAR(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MEMBER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분위기점수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서브시스템명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POINT2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WIFI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입일자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NULL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POINT4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가성비점수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POINT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SITE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선호유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EMAIL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동물출입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>와이파이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UNIQUE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DOUBLE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PARKING</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOW()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주차점수</x:t>
   </x:si>
   <x:si>
     <x:t>선호하는 카페 유형 (F: 프랜차이즈, P: 개인)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FLOAT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>REVIEW_POINT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리뷰점수</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -702,7 +702,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="52">
+  <x:borders count="53">
     <x:border>
       <x:left>
         <x:color rgb="ff000000"/>
@@ -1428,6 +1428,20 @@
         <x:color rgb="ff000000"/>
       </x:top>
       <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="medium">
         <x:color auto="1"/>
       </x:bottom>
     </x:border>
@@ -1443,7 +1457,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="148">
+  <x:cellXfs count="149">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -2978,6 +2992,32 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="12" fillId="4" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="12" fillId="4" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -3264,27 +3304,14 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="12" fillId="4" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="12" fillId="4" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
+        <x:xf numFmtId="165" fontId="9" fillId="6" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="165" fontId="9" fillId="6" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -3613,8 +3640,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B5:O96"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="A57" activeCellId="0" sqref="A57:XFD57"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="F18" activeCellId="0" sqref="F18:F18"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.39999999999999857891"/>
@@ -3622,7 +3649,8 @@
     <x:col min="2" max="2" width="17.75" customWidth="1"/>
     <x:col min="3" max="3" width="6.77734375" customWidth="1"/>
     <x:col min="4" max="4" width="13.77734375" customWidth="1"/>
-    <x:col min="5" max="6" width="12.77734375" customWidth="1"/>
+    <x:col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <x:col min="6" max="6" width="12.77734375" customWidth="1"/>
     <x:col min="7" max="12" width="7.27734375" customWidth="1"/>
     <x:col min="13" max="13" width="18.375" customWidth="1"/>
     <x:col min="14" max="14" width="13.77734375" customWidth="1"/>
@@ -3631,7 +3659,7 @@
   <x:sheetData>
     <x:row r="5" spans="3:15" ht="21">
       <x:c r="C5" s="86" t="s">
-        <x:v>23</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D5" s="87"/>
       <x:c r="E5" s="87"/>
@@ -3649,11 +3677,11 @@
     <x:row r="6" spans="2:15" ht="22.05000000000000071054" customHeight="1">
       <x:c r="B6" s="1"/>
       <x:c r="C6" s="89" t="s">
-        <x:v>73</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D6" s="90"/>
       <x:c r="E6" s="91" t="s">
-        <x:v>108</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F6" s="92"/>
       <x:c r="G6" s="92"/>
@@ -3664,17 +3692,17 @@
       <x:c r="L6" s="92"/>
       <x:c r="M6" s="90"/>
       <x:c r="N6" s="36" t="s">
-        <x:v>52</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="O6" s="37"/>
     </x:row>
     <x:row r="7" spans="3:15" ht="17.80000000000000071054" customHeight="1">
       <x:c r="C7" s="89" t="s">
-        <x:v>77</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D7" s="90"/>
       <x:c r="E7" s="93" t="s">
-        <x:v>96</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F7" s="92"/>
       <x:c r="G7" s="92"/>
@@ -3685,13 +3713,13 @@
       <x:c r="L7" s="92"/>
       <x:c r="M7" s="90"/>
       <x:c r="N7" s="36" t="s">
-        <x:v>136</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="O7" s="37"/>
     </x:row>
     <x:row r="8" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C8" s="89" t="s">
-        <x:v>81</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D8" s="90"/>
       <x:c r="E8" s="91"/>
@@ -3704,19 +3732,19 @@
       <x:c r="L8" s="92"/>
       <x:c r="M8" s="90"/>
       <x:c r="N8" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="O8" s="4" t="s">
-        <x:v>47</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C9" s="89" t="s">
-        <x:v>2</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D9" s="90"/>
       <x:c r="E9" s="91" t="s">
-        <x:v>124</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F9" s="92"/>
       <x:c r="G9" s="92"/>
@@ -3727,17 +3755,17 @@
       <x:c r="L9" s="92"/>
       <x:c r="M9" s="90"/>
       <x:c r="N9" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="O9" s="5"/>
     </x:row>
     <x:row r="10" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C10" s="89" t="s">
-        <x:v>125</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D10" s="90"/>
       <x:c r="E10" s="94" t="s">
-        <x:v>78</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F10" s="95"/>
       <x:c r="G10" s="95"/>
@@ -3752,40 +3780,40 @@
     </x:row>
     <x:row r="11" spans="3:15" ht="26.35000000000000142109">
       <x:c r="C11" s="6" t="s">
-        <x:v>60</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D11" s="7" t="s">
-        <x:v>21</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E11" s="7" t="s">
-        <x:v>5</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F11" s="7" t="s">
-        <x:v>79</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G11" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="H11" s="7" t="s">
-        <x:v>121</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I11" s="7" t="s">
-        <x:v>131</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="J11" s="7" t="s">
-        <x:v>18</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="K11" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="L11" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="M11" s="7" t="s">
-        <x:v>10</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N11" s="97" t="s">
-        <x:v>69</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="O11" s="98"/>
     </x:row>
@@ -3794,33 +3822,33 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D12" s="22" t="s">
-        <x:v>7</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E12" s="22" t="s">
-        <x:v>75</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F12" s="22" t="s">
-        <x:v>119</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G12" s="9"/>
       <x:c r="H12" s="10" t="s">
-        <x:v>138</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I12" s="10"/>
       <x:c r="J12" s="10" t="s">
-        <x:v>138</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="K12" s="9" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L12" s="10" t="s">
-        <x:v>138</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="M12" s="10" t="s">
-        <x:v>109</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N12" s="99" t="s">
-        <x:v>112</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O12" s="98"/>
     </x:row>
@@ -3829,13 +3857,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D13" s="22" t="s">
-        <x:v>115</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E13" s="22" t="s">
-        <x:v>54</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="F13" s="22" t="s">
-        <x:v>14</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G13" s="9">
         <x:v>100</x:v>
@@ -3844,10 +3872,10 @@
       <x:c r="I13" s="9"/>
       <x:c r="J13" s="11"/>
       <x:c r="K13" s="9" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L13" s="10" t="s">
-        <x:v>138</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="M13" s="10"/>
       <x:c r="N13" s="21"/>
@@ -3858,13 +3886,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D14" s="22" t="s">
-        <x:v>3</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E14" s="22" t="s">
-        <x:v>129</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F14" s="22" t="s">
-        <x:v>14</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G14" s="10">
         <x:v>300</x:v>
@@ -3873,7 +3901,7 @@
       <x:c r="I14" s="9"/>
       <x:c r="J14" s="11"/>
       <x:c r="K14" s="9" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L14" s="11"/>
       <x:c r="M14" s="10"/>
@@ -3885,13 +3913,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D15" s="24" t="s">
-        <x:v>134</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E15" s="24" t="s">
-        <x:v>93</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F15" s="24" t="s">
-        <x:v>14</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G15" s="13">
         <x:v>50</x:v>
@@ -3900,7 +3928,7 @@
       <x:c r="I15" s="13"/>
       <x:c r="J15" s="14"/>
       <x:c r="K15" s="13" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L15" s="14"/>
       <x:c r="M15" s="14"/>
@@ -3912,13 +3940,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D16" s="23" t="s">
-        <x:v>27</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E16" s="23" t="s">
-        <x:v>87</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F16" s="23" t="s">
-        <x:v>14</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G16" s="16">
         <x:v>20</x:v>
@@ -3927,7 +3955,7 @@
       <x:c r="I16" s="16"/>
       <x:c r="J16" s="16"/>
       <x:c r="K16" s="16" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L16" s="16"/>
       <x:c r="M16" s="17"/>
@@ -3939,13 +3967,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D17" s="23" t="s">
-        <x:v>17</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E17" s="23" t="s">
-        <x:v>86</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F17" s="23" t="s">
-        <x:v>14</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G17" s="16">
         <x:v>6</x:v>
@@ -3954,12 +3982,12 @@
       <x:c r="I17" s="16"/>
       <x:c r="J17" s="17"/>
       <x:c r="K17" s="16" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L17" s="17"/>
       <x:c r="M17" s="17"/>
       <x:c r="N17" s="102" t="s">
-        <x:v>105</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="O17" s="103"/>
     </x:row>
@@ -3968,13 +3996,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D18" s="23" t="s">
-        <x:v>130</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E18" s="23" t="s">
-        <x:v>6</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F18" s="23" t="s">
-        <x:v>9</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G18" s="16">
         <x:v>1</x:v>
@@ -3983,12 +4011,12 @@
       <x:c r="I18" s="16"/>
       <x:c r="J18" s="17"/>
       <x:c r="K18" s="16" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L18" s="17"/>
       <x:c r="M18" s="17"/>
       <x:c r="N18" s="102" t="s">
-        <x:v>107</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="O18" s="103"/>
     </x:row>
@@ -3997,27 +4025,27 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D19" s="23" t="s">
-        <x:v>24</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E19" s="23" t="s">
-        <x:v>82</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F19" s="23" t="s">
-        <x:v>91</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G19" s="16"/>
       <x:c r="H19" s="16"/>
       <x:c r="I19" s="16"/>
       <x:c r="J19" s="17"/>
       <x:c r="K19" s="16" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L19" s="17"/>
       <x:c r="M19" s="17" t="s">
-        <x:v>58</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="N19" s="102" t="s">
-        <x:v>99</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="O19" s="103"/>
     </x:row>
@@ -4026,33 +4054,33 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D20" s="35" t="s">
-        <x:v>19</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E20" s="35" t="s">
-        <x:v>84</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F20" s="35" t="s">
-        <x:v>91</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G20" s="19"/>
       <x:c r="H20" s="19"/>
       <x:c r="I20" s="19"/>
       <x:c r="J20" s="20"/>
       <x:c r="K20" s="19" t="s">
-        <x:v>138</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="L20" s="20"/>
       <x:c r="M20" s="20" t="s">
-        <x:v>58</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="N20" s="104" t="s">
-        <x:v>113</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O20" s="105"/>
     </x:row>
     <x:row r="23" spans="3:15" ht="21">
       <x:c r="C23" s="106" t="s">
-        <x:v>23</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D23" s="107"/>
       <x:c r="E23" s="107"/>
@@ -4069,11 +4097,11 @@
     </x:row>
     <x:row r="24" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C24" s="109" t="s">
-        <x:v>73</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D24" s="90"/>
       <x:c r="E24" s="91" t="s">
-        <x:v>108</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F24" s="92"/>
       <x:c r="G24" s="92"/>
@@ -4084,17 +4112,17 @@
       <x:c r="L24" s="92"/>
       <x:c r="M24" s="90"/>
       <x:c r="N24" s="36" t="s">
-        <x:v>52</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="O24" s="64"/>
     </x:row>
     <x:row r="25" spans="3:15" ht="17.80000000000000071054" customHeight="1">
       <x:c r="C25" s="109" t="s">
-        <x:v>77</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D25" s="90"/>
       <x:c r="E25" s="93" t="s">
-        <x:v>96</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F25" s="92"/>
       <x:c r="G25" s="92"/>
@@ -4105,13 +4133,13 @@
       <x:c r="L25" s="92"/>
       <x:c r="M25" s="90"/>
       <x:c r="N25" s="36" t="s">
-        <x:v>136</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="O25" s="64"/>
     </x:row>
     <x:row r="26" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C26" s="109" t="s">
-        <x:v>81</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D26" s="90"/>
       <x:c r="E26" s="91"/>
@@ -4124,19 +4152,19 @@
       <x:c r="L26" s="92"/>
       <x:c r="M26" s="90"/>
       <x:c r="N26" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="O26" s="65" t="s">
-        <x:v>50</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C27" s="109" t="s">
-        <x:v>2</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D27" s="90"/>
       <x:c r="E27" s="91" t="s">
-        <x:v>132</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F27" s="92"/>
       <x:c r="G27" s="92"/>
@@ -4147,17 +4175,17 @@
       <x:c r="L27" s="92"/>
       <x:c r="M27" s="90"/>
       <x:c r="N27" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="O27" s="66"/>
     </x:row>
     <x:row r="28" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C28" s="109" t="s">
-        <x:v>125</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D28" s="90"/>
       <x:c r="E28" s="94" t="s">
-        <x:v>85</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F28" s="95"/>
       <x:c r="G28" s="95"/>
@@ -4172,40 +4200,40 @@
     </x:row>
     <x:row r="29" spans="3:15" ht="26.35000000000000142109">
       <x:c r="C29" s="67" t="s">
-        <x:v>60</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D29" s="7" t="s">
-        <x:v>21</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E29" s="7" t="s">
-        <x:v>5</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F29" s="7" t="s">
-        <x:v>79</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G29" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="H29" s="7" t="s">
-        <x:v>121</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I29" s="7" t="s">
-        <x:v>131</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="J29" s="7" t="s">
-        <x:v>18</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="K29" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="L29" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="M29" s="7" t="s">
-        <x:v>10</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N29" s="97" t="s">
-        <x:v>69</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="O29" s="111"/>
     </x:row>
@@ -4214,33 +4242,33 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D30" s="22" t="s">
-        <x:v>20</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E30" s="22" t="s">
-        <x:v>30</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F30" s="22" t="s">
-        <x:v>119</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G30" s="9"/>
       <x:c r="H30" s="10" t="s">
-        <x:v>138</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I30" s="10"/>
       <x:c r="J30" s="10" t="s">
-        <x:v>138</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="K30" s="9" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L30" s="10" t="s">
-        <x:v>138</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="M30" s="10" t="s">
-        <x:v>109</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N30" s="99" t="s">
-        <x:v>110</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O30" s="111"/>
     </x:row>
@@ -4249,13 +4277,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D31" s="22" t="s">
-        <x:v>8</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E31" s="22" t="s">
-        <x:v>80</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F31" s="22" t="s">
-        <x:v>14</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G31" s="9">
         <x:v>100</x:v>
@@ -4264,7 +4292,7 @@
       <x:c r="I31" s="9"/>
       <x:c r="J31" s="11"/>
       <x:c r="K31" s="9" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L31" s="10"/>
       <x:c r="M31" s="10"/>
@@ -4276,13 +4304,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D32" s="51" t="s">
-        <x:v>44</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E32" s="51" t="s">
-        <x:v>44</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F32" s="54" t="s">
-        <x:v>14</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G32" s="51">
         <x:v>300</x:v>
@@ -4291,7 +4319,7 @@
       <x:c r="I32" s="51"/>
       <x:c r="J32" s="51"/>
       <x:c r="K32" s="51" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L32" s="51"/>
       <x:c r="M32" s="51"/>
@@ -4303,13 +4331,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D33" s="55" t="s">
-        <x:v>22</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E33" s="56" t="s">
-        <x:v>72</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F33" s="54" t="s">
-        <x:v>9</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G33" s="50">
         <x:v>1</x:v>
@@ -4318,12 +4346,12 @@
       <x:c r="I33" s="51"/>
       <x:c r="J33" s="51"/>
       <x:c r="K33" s="51" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L33" s="51"/>
       <x:c r="M33" s="51"/>
       <x:c r="N33" s="114" t="s">
-        <x:v>103</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="O33" s="115"/>
     </x:row>
@@ -4332,13 +4360,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D34" s="51" t="s">
-        <x:v>120</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E34" s="53" t="s">
-        <x:v>74</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F34" s="54" t="s">
-        <x:v>14</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G34" s="51">
         <x:v>100</x:v>
@@ -4347,7 +4375,7 @@
       <x:c r="I34" s="51"/>
       <x:c r="J34" s="51"/>
       <x:c r="K34" s="51" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L34" s="51"/>
       <x:c r="M34" s="51"/>
@@ -4359,13 +4387,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D35" s="51" t="s">
-        <x:v>37</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E35" s="53" t="s">
-        <x:v>49</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F35" s="54" t="s">
-        <x:v>14</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G35" s="51">
         <x:v>100</x:v>
@@ -4374,7 +4402,7 @@
       <x:c r="I35" s="51"/>
       <x:c r="J35" s="51"/>
       <x:c r="K35" s="51" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L35" s="51"/>
       <x:c r="M35" s="51"/>
@@ -4386,20 +4414,20 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D36" s="53" t="s">
-        <x:v>122</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E36" s="53" t="s">
-        <x:v>88</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F36" s="54" t="s">
-        <x:v>34</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="G36" s="51"/>
       <x:c r="H36" s="51"/>
       <x:c r="I36" s="51"/>
       <x:c r="J36" s="51"/>
       <x:c r="K36" s="51" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L36" s="51"/>
       <x:c r="M36" s="51"/>
@@ -4411,20 +4439,20 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D37" s="53" t="s">
-        <x:v>135</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E37" s="53" t="s">
-        <x:v>90</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F37" s="54" t="s">
-        <x:v>34</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="G37" s="51"/>
       <x:c r="H37" s="51"/>
       <x:c r="I37" s="51"/>
       <x:c r="J37" s="51"/>
       <x:c r="K37" s="51" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L37" s="51"/>
       <x:c r="M37" s="51"/>
@@ -4436,13 +4464,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D38" s="53" t="s">
-        <x:v>62</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E38" s="53" t="s">
-        <x:v>67</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F38" s="54" t="s">
-        <x:v>119</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G38" s="51"/>
       <x:c r="H38" s="51"/>
@@ -4452,7 +4480,7 @@
       <x:c r="L38" s="51"/>
       <x:c r="M38" s="51"/>
       <x:c r="N38" s="118" t="s">
-        <x:v>101</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="O38" s="119"/>
     </x:row>
@@ -4461,13 +4489,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D39" s="53" t="s">
-        <x:v>66</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E39" s="53" t="s">
-        <x:v>65</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F39" s="54" t="s">
-        <x:v>119</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G39" s="51"/>
       <x:c r="H39" s="51"/>
@@ -4477,7 +4505,7 @@
       <x:c r="L39" s="51"/>
       <x:c r="M39" s="51"/>
       <x:c r="N39" s="118" t="s">
-        <x:v>102</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="O39" s="119"/>
     </x:row>
@@ -4486,13 +4514,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D40" s="51" t="s">
-        <x:v>25</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E40" s="56" t="s">
-        <x:v>70</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F40" s="54" t="s">
-        <x:v>14</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G40" s="51">
         <x:v>30</x:v>
@@ -4511,13 +4539,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D41" s="51" t="s">
-        <x:v>27</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E41" s="56" t="s">
-        <x:v>76</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F41" s="54" t="s">
-        <x:v>14</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G41" s="51">
         <x:v>15</x:v>
@@ -4536,13 +4564,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D42" s="51" t="s">
-        <x:v>15</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E42" s="51" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F42" s="54" t="s">
-        <x:v>14</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G42" s="51">
         <x:v>100</x:v>
@@ -4561,13 +4589,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D43" s="51" t="s">
-        <x:v>43</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E43" s="51" t="s">
-        <x:v>36</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F43" s="54" t="s">
-        <x:v>9</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G43" s="50">
         <x:v>1</x:v>
@@ -4579,7 +4607,7 @@
       <x:c r="L43" s="51"/>
       <x:c r="M43" s="51"/>
       <x:c r="N43" s="114" t="s">
-        <x:v>111</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O43" s="115"/>
     </x:row>
@@ -4588,13 +4616,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D44" s="51" t="s">
-        <x:v>56</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E44" s="51" t="s">
-        <x:v>100</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F44" s="54" t="s">
-        <x:v>9</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G44" s="50">
         <x:v>1</x:v>
@@ -4606,7 +4634,7 @@
       <x:c r="L44" s="51"/>
       <x:c r="M44" s="51"/>
       <x:c r="N44" s="114" t="s">
-        <x:v>111</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O44" s="115"/>
     </x:row>
@@ -4615,13 +4643,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D45" s="51" t="s">
-        <x:v>117</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E45" s="51" t="s">
-        <x:v>35</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="F45" s="54" t="s">
-        <x:v>9</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G45" s="50">
         <x:v>1</x:v>
@@ -4633,7 +4661,7 @@
       <x:c r="L45" s="51"/>
       <x:c r="M45" s="51"/>
       <x:c r="N45" s="114" t="s">
-        <x:v>111</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O45" s="115"/>
     </x:row>
@@ -4642,13 +4670,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D46" s="51" t="s">
-        <x:v>48</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E46" s="51" t="s">
-        <x:v>95</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F46" s="54" t="s">
-        <x:v>9</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G46" s="50">
         <x:v>1</x:v>
@@ -4660,7 +4688,7 @@
       <x:c r="L46" s="51"/>
       <x:c r="M46" s="51"/>
       <x:c r="N46" s="114" t="s">
-        <x:v>111</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O46" s="115"/>
     </x:row>
@@ -4669,13 +4697,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D47" s="51" t="s">
-        <x:v>133</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E47" s="51" t="s">
-        <x:v>89</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F47" s="54" t="s">
-        <x:v>9</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G47" s="50">
         <x:v>1</x:v>
@@ -4687,7 +4715,7 @@
       <x:c r="L47" s="51"/>
       <x:c r="M47" s="51"/>
       <x:c r="N47" s="114" t="s">
-        <x:v>111</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O47" s="115"/>
     </x:row>
@@ -4696,13 +4724,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D48" s="51" t="s">
-        <x:v>114</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E48" s="51" t="s">
-        <x:v>94</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F48" s="54" t="s">
-        <x:v>9</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G48" s="50">
         <x:v>1</x:v>
@@ -4714,7 +4742,7 @@
       <x:c r="L48" s="51"/>
       <x:c r="M48" s="51"/>
       <x:c r="N48" s="114" t="s">
-        <x:v>111</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O48" s="115"/>
     </x:row>
@@ -4723,13 +4751,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D49" s="51" t="s">
-        <x:v>118</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E49" s="53" t="s">
-        <x:v>98</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F49" s="54" t="s">
-        <x:v>119</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G49" s="51"/>
       <x:c r="H49" s="51"/>
@@ -4746,13 +4774,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D50" s="51" t="s">
-        <x:v>127</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E50" s="51" t="s">
-        <x:v>51</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F50" s="54" t="s">
-        <x:v>119</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G50" s="51"/>
       <x:c r="H50" s="51"/>
@@ -4769,13 +4797,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D51" s="51" t="s">
-        <x:v>33</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E51" s="51" t="s">
-        <x:v>55</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F51" s="54" t="s">
-        <x:v>119</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G51" s="51"/>
       <x:c r="H51" s="51"/>
@@ -4792,13 +4820,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D52" s="51" t="s">
-        <x:v>57</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E52" s="51" t="s">
-        <x:v>42</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F52" s="54" t="s">
-        <x:v>119</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G52" s="51"/>
       <x:c r="H52" s="51"/>
@@ -4815,13 +4843,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D53" s="51" t="s">
-        <x:v>40</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E53" s="51" t="s">
-        <x:v>39</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F53" s="54" t="s">
-        <x:v>119</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G53" s="51"/>
       <x:c r="H53" s="51"/>
@@ -4838,13 +4866,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D54" s="57" t="s">
-        <x:v>59</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E54" s="57" t="s">
-        <x:v>38</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F54" s="58" t="s">
-        <x:v>119</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G54" s="57"/>
       <x:c r="H54" s="57"/>
@@ -4861,13 +4889,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D55" s="13" t="s">
-        <x:v>128</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E55" s="16" t="s">
-        <x:v>45</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F55" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G55" s="16">
         <x:v>3</x:v>
@@ -4879,7 +4907,7 @@
       <x:c r="L55" s="16"/>
       <x:c r="M55" s="17"/>
       <x:c r="N55" s="122" t="s">
-        <x:v>63</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O55" s="123"/>
     </x:row>
@@ -4888,13 +4916,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D56" s="13" t="s">
-        <x:v>142</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E56" s="16" t="s">
-        <x:v>141</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F56" s="16" t="s">
-        <x:v>140</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G56" s="16"/>
       <x:c r="H56" s="16"/>
@@ -4903,23 +4931,23 @@
       <x:c r="K56" s="16"/>
       <x:c r="L56" s="16"/>
       <x:c r="M56" s="16"/>
-      <x:c r="N56" s="146" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="O56" s="147"/>
+      <x:c r="N56" s="124" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="O56" s="125"/>
     </x:row>
     <x:row r="57" spans="3:15" s="52" customFormat="1">
       <x:c r="C57" s="69">
         <x:v>28</x:v>
       </x:c>
       <x:c r="D57" s="59" t="s">
-        <x:v>41</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E57" s="59" t="s">
-        <x:v>92</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F57" s="60" t="s">
-        <x:v>14</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G57" s="59">
         <x:v>1000</x:v>
@@ -4930,46 +4958,46 @@
       <x:c r="K57" s="59"/>
       <x:c r="L57" s="59"/>
       <x:c r="M57" s="59"/>
-      <x:c r="N57" s="124"/>
-      <x:c r="O57" s="125"/>
+      <x:c r="N57" s="126"/>
+      <x:c r="O57" s="127"/>
     </x:row>
     <x:row r="58" spans="3:15" s="52" customFormat="1">
       <x:c r="C58" s="69">
         <x:v>29</x:v>
       </x:c>
       <x:c r="D58" s="61" t="s">
-        <x:v>12</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E58" s="62" t="s">
-        <x:v>82</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F58" s="63" t="s">
-        <x:v>91</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G58" s="63"/>
       <x:c r="H58" s="63"/>
       <x:c r="I58" s="63"/>
       <x:c r="J58" s="63"/>
       <x:c r="K58" s="63" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L58" s="63"/>
       <x:c r="M58" s="63"/>
-      <x:c r="N58" s="126"/>
-      <x:c r="O58" s="127"/>
+      <x:c r="N58" s="128"/>
+      <x:c r="O58" s="129"/>
     </x:row>
     <x:row r="59" spans="3:15" s="52" customFormat="1" ht="16.75">
-      <x:c r="C59" s="69">
+      <x:c r="C59" s="148">
         <x:v>30</x:v>
       </x:c>
       <x:c r="D59" s="70" t="s">
-        <x:v>19</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E59" s="71" t="s">
-        <x:v>84</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F59" s="72" t="s">
-        <x:v>91</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G59" s="72"/>
       <x:c r="H59" s="72"/>
@@ -4978,8 +5006,8 @@
       <x:c r="K59" s="72"/>
       <x:c r="L59" s="72"/>
       <x:c r="M59" s="72"/>
-      <x:c r="N59" s="128"/>
-      <x:c r="O59" s="129"/>
+      <x:c r="N59" s="130"/>
+      <x:c r="O59" s="131"/>
     </x:row>
     <x:row r="60" spans="3:15" s="52" customFormat="1">
       <x:c r="C60" s="74"/>
@@ -5088,7 +5116,7 @@
     </x:row>
     <x:row r="67" spans="3:15" ht="21">
       <x:c r="C67" s="86" t="s">
-        <x:v>23</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D67" s="87"/>
       <x:c r="E67" s="87"/>
@@ -5105,11 +5133,11 @@
     </x:row>
     <x:row r="68" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C68" s="89" t="s">
-        <x:v>73</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D68" s="90"/>
       <x:c r="E68" s="91" t="s">
-        <x:v>108</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F68" s="92"/>
       <x:c r="G68" s="92"/>
@@ -5120,17 +5148,17 @@
       <x:c r="L68" s="92"/>
       <x:c r="M68" s="90"/>
       <x:c r="N68" s="36" t="s">
-        <x:v>52</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="O68" s="37"/>
     </x:row>
     <x:row r="69" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C69" s="89" t="s">
-        <x:v>77</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D69" s="90"/>
       <x:c r="E69" s="93" t="s">
-        <x:v>96</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F69" s="92"/>
       <x:c r="G69" s="92"/>
@@ -5141,13 +5169,13 @@
       <x:c r="L69" s="92"/>
       <x:c r="M69" s="90"/>
       <x:c r="N69" s="36" t="s">
-        <x:v>136</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="O69" s="37"/>
     </x:row>
     <x:row r="70" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C70" s="89" t="s">
-        <x:v>81</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D70" s="90"/>
       <x:c r="E70" s="91"/>
@@ -5160,19 +5188,19 @@
       <x:c r="L70" s="92"/>
       <x:c r="M70" s="90"/>
       <x:c r="N70" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="O70" s="4" t="s">
-        <x:v>97</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C71" s="89" t="s">
-        <x:v>2</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D71" s="90"/>
       <x:c r="E71" s="91" t="s">
-        <x:v>4</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F71" s="92"/>
       <x:c r="G71" s="92"/>
@@ -5183,17 +5211,17 @@
       <x:c r="L71" s="92"/>
       <x:c r="M71" s="90"/>
       <x:c r="N71" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="O71" s="5"/>
     </x:row>
     <x:row r="72" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C72" s="89" t="s">
-        <x:v>125</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D72" s="90"/>
       <x:c r="E72" s="94" t="s">
-        <x:v>83</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F72" s="95"/>
       <x:c r="G72" s="95"/>
@@ -5208,99 +5236,99 @@
     </x:row>
     <x:row r="73" spans="3:15" ht="26.35000000000000142109">
       <x:c r="C73" s="25" t="s">
-        <x:v>60</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D73" s="26" t="s">
-        <x:v>21</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E73" s="26" t="s">
-        <x:v>5</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F73" s="26" t="s">
-        <x:v>79</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G73" s="26" t="s">
-        <x:v>31</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="H73" s="26" t="s">
-        <x:v>121</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I73" s="26" t="s">
-        <x:v>131</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="J73" s="26" t="s">
-        <x:v>18</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="K73" s="26" t="s">
-        <x:v>26</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="L73" s="26" t="s">
-        <x:v>32</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="M73" s="26" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="N73" s="130" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="O73" s="131"/>
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="N73" s="132" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="O73" s="133"/>
     </x:row>
     <x:row r="74" spans="3:15" ht="17.5" customHeight="1">
       <x:c r="C74" s="27">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D74" s="28" t="s">
-        <x:v>20</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E74" s="28" t="s">
-        <x:v>30</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F74" s="28" t="s">
-        <x:v>119</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G74" s="28"/>
       <x:c r="H74" s="29" t="s">
-        <x:v>138</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I74" s="29" t="s">
-        <x:v>138</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="J74" s="29" t="s">
-        <x:v>138</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="K74" s="28" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L74" s="29"/>
       <x:c r="M74" s="29"/>
-      <x:c r="N74" s="132"/>
-      <x:c r="O74" s="133"/>
+      <x:c r="N74" s="134"/>
+      <x:c r="O74" s="135"/>
     </x:row>
     <x:row r="75" spans="3:15" ht="17.5" customHeight="1">
       <x:c r="C75" s="30">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D75" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E75" s="9" t="s">
-        <x:v>75</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F75" s="9" t="s">
-        <x:v>119</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G75" s="9"/>
       <x:c r="H75" s="9" t="s">
-        <x:v>138</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I75" s="9" t="s">
-        <x:v>138</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="J75" s="11" t="s">
-        <x:v>138</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="K75" s="9" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L75" s="10"/>
       <x:c r="M75" s="10"/>
@@ -5312,67 +5340,67 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D76" s="9" t="s">
-        <x:v>137</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E76" s="9" t="s">
-        <x:v>1</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F76" s="9" t="s">
-        <x:v>46</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G76" s="10"/>
       <x:c r="H76" s="9"/>
       <x:c r="I76" s="9"/>
       <x:c r="J76" s="11"/>
       <x:c r="K76" s="9" t="s">
-        <x:v>138</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="L76" s="11"/>
       <x:c r="M76" s="73"/>
-      <x:c r="N76" s="134" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="O76" s="135"/>
+      <x:c r="N76" s="136" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="O76" s="137"/>
     </x:row>
     <x:row r="77" spans="3:15" ht="17.5" customHeight="1">
       <x:c r="C77" s="31">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D77" s="9" t="s">
-        <x:v>126</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E77" s="13" t="s">
-        <x:v>28</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F77" s="13" t="s">
-        <x:v>119</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G77" s="13"/>
       <x:c r="H77" s="13"/>
       <x:c r="I77" s="13"/>
       <x:c r="J77" s="14"/>
       <x:c r="K77" s="13" t="s">
-        <x:v>138</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="L77" s="14"/>
       <x:c r="M77" s="14" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="N77" s="136"/>
-      <x:c r="O77" s="137"/>
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="N77" s="138"/>
+      <x:c r="O77" s="139"/>
     </x:row>
     <x:row r="78" spans="3:15" ht="17.5" customHeight="1">
       <x:c r="C78" s="32">
         <x:v>5</x:v>
       </x:c>
       <x:c r="D78" s="13" t="s">
-        <x:v>116</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E78" s="16" t="s">
-        <x:v>13</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F78" s="16" t="s">
-        <x:v>14</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G78" s="16">
         <x:v>4000</x:v>
@@ -5381,27 +5409,27 @@
       <x:c r="I78" s="16"/>
       <x:c r="J78" s="16"/>
       <x:c r="K78" s="16" t="s">
-        <x:v>138</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="L78" s="16"/>
       <x:c r="M78" s="17" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="N78" s="138"/>
-      <x:c r="O78" s="139"/>
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="N78" s="140"/>
+      <x:c r="O78" s="141"/>
     </x:row>
     <x:row r="79" spans="3:15" ht="62.25" customHeight="1">
       <x:c r="C79" s="32">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D79" s="13" t="s">
-        <x:v>128</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E79" s="16" t="s">
-        <x:v>45</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F79" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G79" s="16">
         <x:v>3</x:v>
@@ -5413,7 +5441,7 @@
       <x:c r="L79" s="16"/>
       <x:c r="M79" s="17"/>
       <x:c r="N79" s="122" t="s">
-        <x:v>63</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O79" s="123"/>
     </x:row>
@@ -5422,58 +5450,58 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D80" s="13" t="s">
-        <x:v>12</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E80" s="16" t="s">
-        <x:v>82</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F80" s="16" t="s">
-        <x:v>91</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G80" s="16"/>
       <x:c r="H80" s="16"/>
       <x:c r="I80" s="16"/>
       <x:c r="J80" s="16"/>
       <x:c r="K80" s="16" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L80" s="16"/>
       <x:c r="M80" s="17" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="N80" s="138"/>
-      <x:c r="O80" s="139"/>
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="N80" s="140"/>
+      <x:c r="O80" s="141"/>
     </x:row>
     <x:row r="81" spans="3:15" ht="17.5" customHeight="1">
       <x:c r="C81" s="42">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D81" s="43" t="s">
-        <x:v>16</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E81" s="43" t="s">
-        <x:v>84</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F81" s="43" t="s">
-        <x:v>91</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G81" s="43"/>
       <x:c r="H81" s="43"/>
       <x:c r="I81" s="43"/>
       <x:c r="J81" s="43"/>
       <x:c r="K81" s="43" t="s">
-        <x:v>138</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="L81" s="43"/>
       <x:c r="M81" s="43" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="N81" s="140"/>
-      <x:c r="O81" s="141"/>
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="N81" s="142"/>
+      <x:c r="O81" s="143"/>
     </x:row>
     <x:row r="85" spans="3:15" ht="21">
       <x:c r="C85" s="86" t="s">
-        <x:v>23</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D85" s="87"/>
       <x:c r="E85" s="87"/>
@@ -5490,11 +5518,11 @@
     </x:row>
     <x:row r="86" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C86" s="89" t="s">
-        <x:v>73</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D86" s="90"/>
       <x:c r="E86" s="91" t="s">
-        <x:v>108</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F86" s="92"/>
       <x:c r="G86" s="92"/>
@@ -5505,17 +5533,17 @@
       <x:c r="L86" s="92"/>
       <x:c r="M86" s="90"/>
       <x:c r="N86" s="36" t="s">
-        <x:v>52</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="O86" s="37"/>
     </x:row>
     <x:row r="87" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C87" s="89" t="s">
-        <x:v>77</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D87" s="90"/>
       <x:c r="E87" s="93" t="s">
-        <x:v>96</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F87" s="92"/>
       <x:c r="G87" s="92"/>
@@ -5526,13 +5554,13 @@
       <x:c r="L87" s="92"/>
       <x:c r="M87" s="90"/>
       <x:c r="N87" s="36" t="s">
-        <x:v>136</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="O87" s="37"/>
     </x:row>
     <x:row r="88" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C88" s="89" t="s">
-        <x:v>81</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D88" s="90"/>
       <x:c r="E88" s="91"/>
@@ -5545,19 +5573,19 @@
       <x:c r="L88" s="92"/>
       <x:c r="M88" s="90"/>
       <x:c r="N88" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="O88" s="49" t="s">
-        <x:v>71</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C89" s="89" t="s">
-        <x:v>2</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D89" s="90"/>
       <x:c r="E89" s="91" t="s">
-        <x:v>29</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F89" s="92"/>
       <x:c r="G89" s="92"/>
@@ -5568,13 +5596,13 @@
       <x:c r="L89" s="92"/>
       <x:c r="M89" s="90"/>
       <x:c r="N89" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="O89" s="5"/>
     </x:row>
     <x:row r="90" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C90" s="89" t="s">
-        <x:v>125</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D90" s="90"/>
       <x:c r="E90" s="94"/>
@@ -5591,88 +5619,88 @@
     </x:row>
     <x:row r="91" spans="3:15" ht="26.75">
       <x:c r="C91" s="38" t="s">
-        <x:v>60</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D91" s="39" t="s">
-        <x:v>21</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E91" s="39" t="s">
-        <x:v>5</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F91" s="39" t="s">
-        <x:v>79</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G91" s="26" t="s">
-        <x:v>31</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="H91" s="26" t="s">
-        <x:v>121</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I91" s="26" t="s">
-        <x:v>131</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="J91" s="26" t="s">
-        <x:v>18</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="K91" s="26" t="s">
-        <x:v>26</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="L91" s="26" t="s">
-        <x:v>32</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="M91" s="26" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="N91" s="130" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="O91" s="131"/>
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="N91" s="132" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="O91" s="133"/>
     </x:row>
     <x:row r="92" spans="3:15" ht="17.5" customHeight="1">
       <x:c r="C92" s="27">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D92" s="40" t="s">
-        <x:v>7</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E92" s="41" t="s">
-        <x:v>75</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F92" s="28" t="s">
-        <x:v>119</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G92" s="28"/>
       <x:c r="H92" s="29" t="s">
-        <x:v>138</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I92" s="29" t="s">
-        <x:v>138</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="J92" s="29" t="s">
-        <x:v>138</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="K92" s="28" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L92" s="29"/>
       <x:c r="M92" s="29"/>
-      <x:c r="N92" s="142" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O92" s="143"/>
+      <x:c r="N92" s="144" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="O92" s="145"/>
     </x:row>
     <x:row r="93" spans="3:15" ht="17.5" customHeight="1">
       <x:c r="C93" s="30">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D93" s="44" t="s">
-        <x:v>22</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E93" s="45" t="s">
-        <x:v>72</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F93" s="9" t="s">
-        <x:v>9</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G93" s="9">
         <x:v>1</x:v>
@@ -5681,27 +5709,27 @@
       <x:c r="I93" s="9"/>
       <x:c r="J93" s="11"/>
       <x:c r="K93" s="9" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L93" s="10"/>
       <x:c r="M93" s="10"/>
-      <x:c r="N93" s="144" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="O93" s="145"/>
+      <x:c r="N93" s="146" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="O93" s="147"/>
     </x:row>
     <x:row r="94" spans="3:15" s="52" customFormat="1" ht="62.25" customHeight="1">
       <x:c r="C94" s="32">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D94" s="13" t="s">
-        <x:v>128</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E94" s="16" t="s">
-        <x:v>45</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F94" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G94" s="16">
         <x:v>3</x:v>
@@ -5713,7 +5741,7 @@
       <x:c r="L94" s="16"/>
       <x:c r="M94" s="17"/>
       <x:c r="N94" s="122" t="s">
-        <x:v>63</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O94" s="123"/>
     </x:row>
@@ -5722,58 +5750,58 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D95" s="13" t="s">
-        <x:v>12</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E95" s="16" t="s">
-        <x:v>82</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F95" s="16" t="s">
-        <x:v>91</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G95" s="16"/>
       <x:c r="H95" s="16"/>
       <x:c r="I95" s="16"/>
       <x:c r="J95" s="16"/>
       <x:c r="K95" s="16" t="s">
-        <x:v>123</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L95" s="16"/>
       <x:c r="M95" s="17" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="N95" s="138" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="O95" s="139"/>
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="N95" s="140" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="O95" s="141"/>
     </x:row>
     <x:row r="96" spans="3:15" ht="17.5" customHeight="1">
       <x:c r="C96" s="42">
         <x:v>5</x:v>
       </x:c>
       <x:c r="D96" s="43" t="s">
-        <x:v>19</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E96" s="43" t="s">
-        <x:v>84</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F96" s="43" t="s">
-        <x:v>91</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G96" s="43"/>
       <x:c r="H96" s="43"/>
       <x:c r="I96" s="43"/>
       <x:c r="J96" s="43"/>
       <x:c r="K96" s="43" t="s">
-        <x:v>138</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="L96" s="43"/>
       <x:c r="M96" s="46" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="N96" s="140" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="O96" s="141"/>
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="N96" s="142" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="O96" s="143"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="97">

--- a/프로젝트 문서/설계 문서/테이블 정의서/테이블 정의서 (240910 수정).xlsx
+++ b/프로젝트 문서/설계 문서/테이블 정의서/테이블 정의서 (240910 수정).xlsx
@@ -119,9 +119,6 @@
     <x:t>CAFE_NAME</x:t>
   </x:si>
   <x:si>
-    <x:t>USER_TEL</x:t>
-  </x:si>
-  <x:si>
     <x:t>PLAYROOM</x:t>
   </x:si>
   <x:si>
@@ -454,6 +451,9 @@
   </x:si>
   <x:si>
     <x:t>선호하는 카페 유형 (F: 프랜차이즈, P: 개인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MEMBER_TEL</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -3641,7 +3641,7 @@
   <x:dimension ref="B5:O96"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="F18" activeCellId="0" sqref="F18:F18"/>
+      <x:selection activeCell="E17" activeCellId="0" sqref="E17:E17"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.39999999999999857891"/>
@@ -3659,7 +3659,7 @@
   <x:sheetData>
     <x:row r="5" spans="3:15" ht="21">
       <x:c r="C5" s="86" t="s">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D5" s="87"/>
       <x:c r="E5" s="87"/>
@@ -3681,7 +3681,7 @@
       </x:c>
       <x:c r="D6" s="90"/>
       <x:c r="E6" s="91" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F6" s="92"/>
       <x:c r="G6" s="92"/>
@@ -3692,7 +3692,7 @@
       <x:c r="L6" s="92"/>
       <x:c r="M6" s="90"/>
       <x:c r="N6" s="36" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="O6" s="37"/>
     </x:row>
@@ -3702,7 +3702,7 @@
       </x:c>
       <x:c r="D7" s="90"/>
       <x:c r="E7" s="93" t="s">
-        <x:v>38</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F7" s="92"/>
       <x:c r="G7" s="92"/>
@@ -3713,7 +3713,7 @@
       <x:c r="L7" s="92"/>
       <x:c r="M7" s="90"/>
       <x:c r="N7" s="36" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="O7" s="37"/>
     </x:row>
@@ -3732,19 +3732,19 @@
       <x:c r="L8" s="92"/>
       <x:c r="M8" s="90"/>
       <x:c r="N8" s="3" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="O8" s="4" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C9" s="89" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D9" s="90"/>
       <x:c r="E9" s="91" t="s">
-        <x:v>65</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F9" s="92"/>
       <x:c r="G9" s="92"/>
@@ -3755,13 +3755,13 @@
       <x:c r="L9" s="92"/>
       <x:c r="M9" s="90"/>
       <x:c r="N9" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O9" s="5"/>
     </x:row>
     <x:row r="10" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C10" s="89" t="s">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D10" s="90"/>
       <x:c r="E10" s="94" t="s">
@@ -3780,37 +3780,37 @@
     </x:row>
     <x:row r="11" spans="3:15" ht="26.35000000000000142109">
       <x:c r="C11" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D11" s="7" t="s">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E11" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F11" s="7" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="G11" s="7" t="s">
-        <x:v>111</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H11" s="7" t="s">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I11" s="7" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="J11" s="7" t="s">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="K11" s="7" t="s">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="L11" s="7" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="M11" s="7" t="s">
-        <x:v>88</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N11" s="97" t="s">
         <x:v>15</x:v>
@@ -3822,27 +3822,27 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D12" s="22" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E12" s="22" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F12" s="22" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G12" s="9"/>
       <x:c r="H12" s="10" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I12" s="10"/>
       <x:c r="J12" s="10" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K12" s="9" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="L12" s="10" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M12" s="10" t="s">
         <x:v>3</x:v>
@@ -3857,13 +3857,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D13" s="22" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E13" s="22" t="s">
-        <x:v>133</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F13" s="22" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G13" s="9">
         <x:v>100</x:v>
@@ -3872,10 +3872,10 @@
       <x:c r="I13" s="9"/>
       <x:c r="J13" s="11"/>
       <x:c r="K13" s="9" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="L13" s="10" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M13" s="10"/>
       <x:c r="N13" s="21"/>
@@ -3886,13 +3886,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D14" s="22" t="s">
-        <x:v>86</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E14" s="22" t="s">
-        <x:v>67</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F14" s="22" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G14" s="10">
         <x:v>300</x:v>
@@ -3901,7 +3901,7 @@
       <x:c r="I14" s="9"/>
       <x:c r="J14" s="11"/>
       <x:c r="K14" s="9" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="L14" s="11"/>
       <x:c r="M14" s="10"/>
@@ -3913,13 +3913,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D15" s="24" t="s">
-        <x:v>69</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E15" s="24" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F15" s="24" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G15" s="13">
         <x:v>50</x:v>
@@ -3928,7 +3928,7 @@
       <x:c r="I15" s="13"/>
       <x:c r="J15" s="14"/>
       <x:c r="K15" s="13" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="L15" s="14"/>
       <x:c r="M15" s="14"/>
@@ -3940,13 +3940,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D16" s="23" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E16" s="23" t="s">
-        <x:v>31</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="F16" s="23" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G16" s="16">
         <x:v>20</x:v>
@@ -3955,7 +3955,7 @@
       <x:c r="I16" s="16"/>
       <x:c r="J16" s="16"/>
       <x:c r="K16" s="16" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="L16" s="16"/>
       <x:c r="M16" s="17"/>
@@ -3967,13 +3967,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D17" s="23" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E17" s="23" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="F17" s="23" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G17" s="16">
         <x:v>6</x:v>
@@ -3982,12 +3982,12 @@
       <x:c r="I17" s="16"/>
       <x:c r="J17" s="17"/>
       <x:c r="K17" s="16" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="L17" s="17"/>
       <x:c r="M17" s="17"/>
       <x:c r="N17" s="102" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="O17" s="103"/>
     </x:row>
@@ -3996,13 +3996,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D18" s="23" t="s">
-        <x:v>71</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E18" s="23" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F18" s="23" t="s">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G18" s="16">
         <x:v>1</x:v>
@@ -4011,12 +4011,12 @@
       <x:c r="I18" s="16"/>
       <x:c r="J18" s="17"/>
       <x:c r="K18" s="16" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="L18" s="17"/>
       <x:c r="M18" s="17"/>
       <x:c r="N18" s="102" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="O18" s="103"/>
     </x:row>
@@ -4025,7 +4025,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D19" s="23" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E19" s="23" t="s">
         <x:v>22</x:v>
@@ -4038,14 +4038,14 @@
       <x:c r="I19" s="16"/>
       <x:c r="J19" s="17"/>
       <x:c r="K19" s="16" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="L19" s="17"/>
       <x:c r="M19" s="17" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="N19" s="102" t="s">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="O19" s="103"/>
     </x:row>
@@ -4054,10 +4054,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D20" s="35" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E20" s="35" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F20" s="35" t="s">
         <x:v>21</x:v>
@@ -4067,11 +4067,11 @@
       <x:c r="I20" s="19"/>
       <x:c r="J20" s="20"/>
       <x:c r="K20" s="19" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L20" s="20"/>
       <x:c r="M20" s="20" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="N20" s="104" t="s">
         <x:v>6</x:v>
@@ -4080,7 +4080,7 @@
     </x:row>
     <x:row r="23" spans="3:15" ht="21">
       <x:c r="C23" s="106" t="s">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D23" s="107"/>
       <x:c r="E23" s="107"/>
@@ -4101,7 +4101,7 @@
       </x:c>
       <x:c r="D24" s="90"/>
       <x:c r="E24" s="91" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F24" s="92"/>
       <x:c r="G24" s="92"/>
@@ -4112,7 +4112,7 @@
       <x:c r="L24" s="92"/>
       <x:c r="M24" s="90"/>
       <x:c r="N24" s="36" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="O24" s="64"/>
     </x:row>
@@ -4122,7 +4122,7 @@
       </x:c>
       <x:c r="D25" s="90"/>
       <x:c r="E25" s="93" t="s">
-        <x:v>38</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F25" s="92"/>
       <x:c r="G25" s="92"/>
@@ -4133,7 +4133,7 @@
       <x:c r="L25" s="92"/>
       <x:c r="M25" s="90"/>
       <x:c r="N25" s="36" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="O25" s="64"/>
     </x:row>
@@ -4152,19 +4152,19 @@
       <x:c r="L26" s="92"/>
       <x:c r="M26" s="90"/>
       <x:c r="N26" s="3" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="O26" s="65" t="s">
-        <x:v>107</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C27" s="109" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D27" s="90"/>
       <x:c r="E27" s="91" t="s">
-        <x:v>61</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F27" s="92"/>
       <x:c r="G27" s="92"/>
@@ -4175,13 +4175,13 @@
       <x:c r="L27" s="92"/>
       <x:c r="M27" s="90"/>
       <x:c r="N27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O27" s="66"/>
     </x:row>
     <x:row r="28" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C28" s="109" t="s">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D28" s="90"/>
       <x:c r="E28" s="94" t="s">
@@ -4200,37 +4200,37 @@
     </x:row>
     <x:row r="29" spans="3:15" ht="26.35000000000000142109">
       <x:c r="C29" s="67" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D29" s="7" t="s">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E29" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F29" s="7" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="G29" s="7" t="s">
-        <x:v>111</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H29" s="7" t="s">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I29" s="7" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="J29" s="7" t="s">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="K29" s="7" t="s">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="L29" s="7" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="M29" s="7" t="s">
-        <x:v>88</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N29" s="97" t="s">
         <x:v>15</x:v>
@@ -4242,27 +4242,27 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D30" s="22" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E30" s="22" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F30" s="22" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G30" s="9"/>
       <x:c r="H30" s="10" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I30" s="10"/>
       <x:c r="J30" s="10" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K30" s="9" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="L30" s="10" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M30" s="10" t="s">
         <x:v>3</x:v>
@@ -4277,13 +4277,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D31" s="22" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E31" s="22" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="F31" s="22" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G31" s="9">
         <x:v>100</x:v>
@@ -4292,7 +4292,7 @@
       <x:c r="I31" s="9"/>
       <x:c r="J31" s="11"/>
       <x:c r="K31" s="9" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="L31" s="10"/>
       <x:c r="M31" s="10"/>
@@ -4304,13 +4304,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D32" s="51" t="s">
-        <x:v>131</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E32" s="51" t="s">
-        <x:v>131</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F32" s="54" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G32" s="51">
         <x:v>300</x:v>
@@ -4319,7 +4319,7 @@
       <x:c r="I32" s="51"/>
       <x:c r="J32" s="51"/>
       <x:c r="K32" s="51" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="L32" s="51"/>
       <x:c r="M32" s="51"/>
@@ -4331,13 +4331,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D33" s="55" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="56" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F33" s="54" t="s">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G33" s="50">
         <x:v>1</x:v>
@@ -4346,12 +4346,12 @@
       <x:c r="I33" s="51"/>
       <x:c r="J33" s="51"/>
       <x:c r="K33" s="51" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="L33" s="51"/>
       <x:c r="M33" s="51"/>
       <x:c r="N33" s="114" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="O33" s="115"/>
     </x:row>
@@ -4360,13 +4360,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D34" s="51" t="s">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E34" s="53" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F34" s="54" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G34" s="51">
         <x:v>100</x:v>
@@ -4375,7 +4375,7 @@
       <x:c r="I34" s="51"/>
       <x:c r="J34" s="51"/>
       <x:c r="K34" s="51" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="L34" s="51"/>
       <x:c r="M34" s="51"/>
@@ -4387,13 +4387,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D35" s="51" t="s">
-        <x:v>110</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E35" s="53" t="s">
-        <x:v>112</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F35" s="54" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G35" s="51">
         <x:v>100</x:v>
@@ -4402,7 +4402,7 @@
       <x:c r="I35" s="51"/>
       <x:c r="J35" s="51"/>
       <x:c r="K35" s="51" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="L35" s="51"/>
       <x:c r="M35" s="51"/>
@@ -4414,20 +4414,20 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D36" s="53" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E36" s="53" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="F36" s="54" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="G36" s="51"/>
       <x:c r="H36" s="51"/>
       <x:c r="I36" s="51"/>
       <x:c r="J36" s="51"/>
       <x:c r="K36" s="51" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="L36" s="51"/>
       <x:c r="M36" s="51"/>
@@ -4439,20 +4439,20 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D37" s="53" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E37" s="53" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="F37" s="54" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="G37" s="51"/>
       <x:c r="H37" s="51"/>
       <x:c r="I37" s="51"/>
       <x:c r="J37" s="51"/>
       <x:c r="K37" s="51" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="L37" s="51"/>
       <x:c r="M37" s="51"/>
@@ -4464,13 +4464,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D38" s="53" t="s">
-        <x:v>59</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E38" s="53" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="F38" s="54" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G38" s="51"/>
       <x:c r="H38" s="51"/>
@@ -4480,7 +4480,7 @@
       <x:c r="L38" s="51"/>
       <x:c r="M38" s="51"/>
       <x:c r="N38" s="118" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="O38" s="119"/>
     </x:row>
@@ -4489,13 +4489,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D39" s="53" t="s">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E39" s="53" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F39" s="54" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G39" s="51"/>
       <x:c r="H39" s="51"/>
@@ -4505,7 +4505,7 @@
       <x:c r="L39" s="51"/>
       <x:c r="M39" s="51"/>
       <x:c r="N39" s="118" t="s">
-        <x:v>36</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="O39" s="119"/>
     </x:row>
@@ -4514,13 +4514,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D40" s="51" t="s">
-        <x:v>109</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E40" s="56" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F40" s="54" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G40" s="51">
         <x:v>30</x:v>
@@ -4539,13 +4539,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D41" s="51" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E41" s="56" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F41" s="54" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G41" s="51">
         <x:v>15</x:v>
@@ -4564,13 +4564,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D42" s="51" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E42" s="51" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="F42" s="54" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G42" s="51">
         <x:v>100</x:v>
@@ -4589,13 +4589,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D43" s="51" t="s">
-        <x:v>136</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E43" s="51" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F43" s="54" t="s">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G43" s="50">
         <x:v>1</x:v>
@@ -4616,13 +4616,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D44" s="51" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="51" t="s">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F44" s="54" t="s">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G44" s="50">
         <x:v>1</x:v>
@@ -4643,13 +4643,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D45" s="51" t="s">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E45" s="51" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="F45" s="54" t="s">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G45" s="50">
         <x:v>1</x:v>
@@ -4670,13 +4670,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D46" s="51" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E46" s="51" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F46" s="54" t="s">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G46" s="50">
         <x:v>1</x:v>
@@ -4697,13 +4697,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D47" s="51" t="s">
-        <x:v>62</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E47" s="51" t="s">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F47" s="54" t="s">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G47" s="50">
         <x:v>1</x:v>
@@ -4724,13 +4724,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D48" s="51" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E48" s="51" t="s">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F48" s="54" t="s">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G48" s="50">
         <x:v>1</x:v>
@@ -4751,13 +4751,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D49" s="51" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E49" s="53" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F49" s="54" t="s">
         <x:v>52</x:v>
-      </x:c>
-      <x:c r="E49" s="53" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F49" s="54" t="s">
-        <x:v>53</x:v>
       </x:c>
       <x:c r="G49" s="51"/>
       <x:c r="H49" s="51"/>
@@ -4774,13 +4774,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D50" s="51" t="s">
-        <x:v>63</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E50" s="51" t="s">
-        <x:v>113</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F50" s="54" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G50" s="51"/>
       <x:c r="H50" s="51"/>
@@ -4797,13 +4797,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D51" s="51" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E51" s="51" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F51" s="54" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G51" s="51"/>
       <x:c r="H51" s="51"/>
@@ -4820,13 +4820,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D52" s="51" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E52" s="51" t="s">
-        <x:v>108</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F52" s="54" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G52" s="51"/>
       <x:c r="H52" s="51"/>
@@ -4843,13 +4843,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D53" s="51" t="s">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E53" s="51" t="s">
-        <x:v>128</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F53" s="54" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G53" s="51"/>
       <x:c r="H53" s="51"/>
@@ -4866,13 +4866,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D54" s="57" t="s">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E54" s="57" t="s">
-        <x:v>106</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F54" s="58" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G54" s="57"/>
       <x:c r="H54" s="57"/>
@@ -4889,13 +4889,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D55" s="13" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E55" s="16" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F55" s="16" t="s">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G55" s="16">
         <x:v>3</x:v>
@@ -4916,13 +4916,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D56" s="13" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E56" s="16" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F56" s="16" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G56" s="16"/>
       <x:c r="H56" s="16"/>
@@ -4932,7 +4932,7 @@
       <x:c r="L56" s="16"/>
       <x:c r="M56" s="16"/>
       <x:c r="N56" s="124" t="s">
-        <x:v>49</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="O56" s="125"/>
     </x:row>
@@ -4941,13 +4941,13 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D57" s="59" t="s">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E57" s="59" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F57" s="60" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G57" s="59">
         <x:v>1000</x:v>
@@ -4966,7 +4966,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="D58" s="61" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E58" s="62" t="s">
         <x:v>22</x:v>
@@ -4979,7 +4979,7 @@
       <x:c r="I58" s="63"/>
       <x:c r="J58" s="63"/>
       <x:c r="K58" s="63" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="L58" s="63"/>
       <x:c r="M58" s="63"/>
@@ -4991,10 +4991,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="D59" s="70" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E59" s="71" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F59" s="72" t="s">
         <x:v>21</x:v>
@@ -5116,7 +5116,7 @@
     </x:row>
     <x:row r="67" spans="3:15" ht="21">
       <x:c r="C67" s="86" t="s">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D67" s="87"/>
       <x:c r="E67" s="87"/>
@@ -5137,7 +5137,7 @@
       </x:c>
       <x:c r="D68" s="90"/>
       <x:c r="E68" s="91" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F68" s="92"/>
       <x:c r="G68" s="92"/>
@@ -5148,7 +5148,7 @@
       <x:c r="L68" s="92"/>
       <x:c r="M68" s="90"/>
       <x:c r="N68" s="36" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="O68" s="37"/>
     </x:row>
@@ -5158,7 +5158,7 @@
       </x:c>
       <x:c r="D69" s="90"/>
       <x:c r="E69" s="93" t="s">
-        <x:v>38</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F69" s="92"/>
       <x:c r="G69" s="92"/>
@@ -5169,7 +5169,7 @@
       <x:c r="L69" s="92"/>
       <x:c r="M69" s="90"/>
       <x:c r="N69" s="36" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="O69" s="37"/>
     </x:row>
@@ -5188,19 +5188,19 @@
       <x:c r="L70" s="92"/>
       <x:c r="M70" s="90"/>
       <x:c r="N70" s="3" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="O70" s="4" t="s">
-        <x:v>37</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C71" s="89" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D71" s="90"/>
       <x:c r="E71" s="91" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F71" s="92"/>
       <x:c r="G71" s="92"/>
@@ -5211,13 +5211,13 @@
       <x:c r="L71" s="92"/>
       <x:c r="M71" s="90"/>
       <x:c r="N71" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O71" s="5"/>
     </x:row>
     <x:row r="72" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C72" s="89" t="s">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D72" s="90"/>
       <x:c r="E72" s="94" t="s">
@@ -5236,37 +5236,37 @@
     </x:row>
     <x:row r="73" spans="3:15" ht="26.35000000000000142109">
       <x:c r="C73" s="25" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D73" s="26" t="s">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E73" s="26" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F73" s="26" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="G73" s="26" t="s">
-        <x:v>111</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H73" s="26" t="s">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I73" s="26" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="J73" s="26" t="s">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="K73" s="26" t="s">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="L73" s="26" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="M73" s="26" t="s">
-        <x:v>88</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N73" s="132" t="s">
         <x:v>15</x:v>
@@ -5278,26 +5278,26 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D74" s="28" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E74" s="28" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F74" s="28" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G74" s="28"/>
       <x:c r="H74" s="29" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I74" s="29" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J74" s="29" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K74" s="28" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="L74" s="29"/>
       <x:c r="M74" s="29"/>
@@ -5309,26 +5309,26 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D75" s="16" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E75" s="9" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F75" s="9" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G75" s="9"/>
       <x:c r="H75" s="9" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I75" s="9" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J75" s="11" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K75" s="9" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="L75" s="10"/>
       <x:c r="M75" s="10"/>
@@ -5340,25 +5340,25 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D76" s="9" t="s">
-        <x:v>70</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E76" s="9" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F76" s="9" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="G76" s="10"/>
       <x:c r="H76" s="9"/>
       <x:c r="I76" s="9"/>
       <x:c r="J76" s="11"/>
       <x:c r="K76" s="9" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L76" s="11"/>
       <x:c r="M76" s="73"/>
       <x:c r="N76" s="136" t="s">
-        <x:v>114</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="O76" s="137"/>
     </x:row>
@@ -5367,24 +5367,24 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D77" s="9" t="s">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E77" s="13" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F77" s="13" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G77" s="13"/>
       <x:c r="H77" s="13"/>
       <x:c r="I77" s="13"/>
       <x:c r="J77" s="14"/>
       <x:c r="K77" s="13" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L77" s="14"/>
       <x:c r="M77" s="14" t="s">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="N77" s="138"/>
       <x:c r="O77" s="139"/>
@@ -5394,13 +5394,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D78" s="13" t="s">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E78" s="16" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F78" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G78" s="16">
         <x:v>4000</x:v>
@@ -5409,11 +5409,11 @@
       <x:c r="I78" s="16"/>
       <x:c r="J78" s="16"/>
       <x:c r="K78" s="16" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L78" s="16"/>
       <x:c r="M78" s="17" t="s">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="N78" s="140"/>
       <x:c r="O78" s="141"/>
@@ -5423,13 +5423,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D79" s="13" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E79" s="16" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F79" s="16" t="s">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G79" s="16">
         <x:v>3</x:v>
@@ -5450,7 +5450,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D80" s="13" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E80" s="16" t="s">
         <x:v>22</x:v>
@@ -5463,11 +5463,11 @@
       <x:c r="I80" s="16"/>
       <x:c r="J80" s="16"/>
       <x:c r="K80" s="16" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="L80" s="16"/>
       <x:c r="M80" s="17" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="N80" s="140"/>
       <x:c r="O80" s="141"/>
@@ -5477,10 +5477,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D81" s="43" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E81" s="43" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F81" s="43" t="s">
         <x:v>21</x:v>
@@ -5490,18 +5490,18 @@
       <x:c r="I81" s="43"/>
       <x:c r="J81" s="43"/>
       <x:c r="K81" s="43" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L81" s="43"/>
       <x:c r="M81" s="43" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="N81" s="142"/>
       <x:c r="O81" s="143"/>
     </x:row>
     <x:row r="85" spans="3:15" ht="21">
       <x:c r="C85" s="86" t="s">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D85" s="87"/>
       <x:c r="E85" s="87"/>
@@ -5522,7 +5522,7 @@
       </x:c>
       <x:c r="D86" s="90"/>
       <x:c r="E86" s="91" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F86" s="92"/>
       <x:c r="G86" s="92"/>
@@ -5533,7 +5533,7 @@
       <x:c r="L86" s="92"/>
       <x:c r="M86" s="90"/>
       <x:c r="N86" s="36" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="O86" s="37"/>
     </x:row>
@@ -5543,7 +5543,7 @@
       </x:c>
       <x:c r="D87" s="90"/>
       <x:c r="E87" s="93" t="s">
-        <x:v>38</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F87" s="92"/>
       <x:c r="G87" s="92"/>
@@ -5554,7 +5554,7 @@
       <x:c r="L87" s="92"/>
       <x:c r="M87" s="90"/>
       <x:c r="N87" s="36" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="O87" s="37"/>
     </x:row>
@@ -5573,7 +5573,7 @@
       <x:c r="L88" s="92"/>
       <x:c r="M88" s="90"/>
       <x:c r="N88" s="3" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="O88" s="49" t="s">
         <x:v>19</x:v>
@@ -5581,11 +5581,11 @@
     </x:row>
     <x:row r="89" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C89" s="89" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D89" s="90"/>
       <x:c r="E89" s="91" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F89" s="92"/>
       <x:c r="G89" s="92"/>
@@ -5596,13 +5596,13 @@
       <x:c r="L89" s="92"/>
       <x:c r="M89" s="90"/>
       <x:c r="N89" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O89" s="5"/>
     </x:row>
     <x:row r="90" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C90" s="89" t="s">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D90" s="90"/>
       <x:c r="E90" s="94"/>
@@ -5619,37 +5619,37 @@
     </x:row>
     <x:row r="91" spans="3:15" ht="26.75">
       <x:c r="C91" s="38" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D91" s="39" t="s">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E91" s="39" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F91" s="39" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="G91" s="26" t="s">
-        <x:v>111</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H91" s="26" t="s">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I91" s="26" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="J91" s="26" t="s">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="K91" s="26" t="s">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="L91" s="26" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="M91" s="26" t="s">
-        <x:v>88</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N91" s="132" t="s">
         <x:v>15</x:v>
@@ -5661,26 +5661,26 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D92" s="40" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E92" s="41" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F92" s="28" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G92" s="28"/>
       <x:c r="H92" s="29" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I92" s="29" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J92" s="29" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K92" s="28" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="L92" s="29"/>
       <x:c r="M92" s="29"/>
@@ -5694,13 +5694,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D93" s="44" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E93" s="45" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F93" s="9" t="s">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G93" s="9">
         <x:v>1</x:v>
@@ -5709,12 +5709,12 @@
       <x:c r="I93" s="9"/>
       <x:c r="J93" s="11"/>
       <x:c r="K93" s="9" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="L93" s="10"/>
       <x:c r="M93" s="10"/>
       <x:c r="N93" s="146" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="O93" s="147"/>
     </x:row>
@@ -5723,13 +5723,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D94" s="13" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E94" s="16" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F94" s="16" t="s">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G94" s="16">
         <x:v>3</x:v>
@@ -5750,7 +5750,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D95" s="13" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E95" s="16" t="s">
         <x:v>22</x:v>
@@ -5763,14 +5763,14 @@
       <x:c r="I95" s="16"/>
       <x:c r="J95" s="16"/>
       <x:c r="K95" s="16" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="L95" s="16"/>
       <x:c r="M95" s="17" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="N95" s="140" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="O95" s="141"/>
     </x:row>
@@ -5779,10 +5779,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D96" s="43" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E96" s="43" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F96" s="43" t="s">
         <x:v>21</x:v>
@@ -5792,14 +5792,14 @@
       <x:c r="I96" s="43"/>
       <x:c r="J96" s="43"/>
       <x:c r="K96" s="43" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L96" s="43"/>
       <x:c r="M96" s="46" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="N96" s="142" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="O96" s="143"/>
     </x:row>
